--- a/丞燕產品表新版.xlsx
+++ b/丞燕產品表新版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsaiwenzhe/丞燕/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsaiwenzhe/PycharmProjects/python_01/chen-yen-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6230FB-70E9-554C-B607-8C341E528D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E387A-DC01-524F-B311-63A612068C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{538792E1-593F-4146-9932-8EFA0D39105A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
   <si>
     <t>大項</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -802,187 +802,8 @@
     </r>
   </si>
   <si>
-    <t>禧悅計劃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>禧悅計劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>千禧飲料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紐益特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>) 16,034</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>禧悅金計劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>千禧金飲料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>紐益特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>) 17,472</t>
-    </r>
-  </si>
-  <si>
     <t>食用油</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>食用調合油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>(375</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>毫升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>瓶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>瓶裝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>) 1,216 1,596</t>
-    </r>
   </si>
   <si>
     <t>臉部清潔</t>
@@ -2547,6 +2368,185 @@
   </si>
   <si>
     <t>總價格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禧悅計劃</t>
+  </si>
+  <si>
+    <r>
+      <t>禧悅計劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>千禧飲料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紐益特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>禧悅金計劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>千禧金飲料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紐益特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>食用調合油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>(375</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>毫升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>瓶裝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2554,7 +2554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2611,6 +2611,11 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2620,7 +2625,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2643,13 +2648,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2676,6 +2705,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3530,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFDBBA-64EE-4543-B25F-632AA2660F62}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="163" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3568,10 +3609,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -3600,57 +3641,75 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <f>SUM(F2:F134)</f>
+        <f>SUM(F2:F111)</f>
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <f>SUM(H2:H134)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+        <f>SUM(H2:H111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="3">
+        <v>1290</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1502</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H18" si="1">D3*G3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>10004</v>
+        <v>100080</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3">
-        <v>1290</v>
+      <c r="E4" s="1">
+        <v>920</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F19" si="0">D4*E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>1502</v>
+        <v>1082</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H19" si="1">D4*G4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="1">
-        <v>100080</v>
+        <v>100083</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -3669,12 +3728,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="1">
-        <v>100083</v>
+        <v>100085</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -3693,23 +3754,25 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1">
-        <v>100085</v>
+        <v>100111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>920</v>
+      <c r="E7" s="3">
+        <v>1110</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>1082</v>
+        <v>1292</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
@@ -3717,23 +3780,25 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" s="1">
-        <v>100111</v>
+        <v>100140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3">
-        <v>1110</v>
+        <v>1550</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>1292</v>
+        <v>1806</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
@@ -3741,23 +3806,25 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="1">
-        <v>100140</v>
+        <v>100121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3">
-        <v>1550</v>
+        <v>1670</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1806</v>
+        <v>1943</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="1"/>
@@ -3765,47 +3832,51 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="1">
-        <v>100121</v>
+        <v>100150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3">
-        <v>1670</v>
+        <v>7160</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>1943</v>
+        <v>8348</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="1">
-        <v>100150</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>100210</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3">
-        <v>7160</v>
+        <v>1880</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>8348</v>
+        <v>2184</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
@@ -3813,23 +3884,25 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B12" s="1">
-        <v>100210</v>
+        <v>100281</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3">
-        <v>1880</v>
+        <v>2070</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>2184</v>
+        <v>2415</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
@@ -3837,23 +3910,25 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="1">
-        <v>100281</v>
+        <v>109061</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3">
-        <v>2070</v>
+        <v>1200</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>2415</v>
+        <v>1397</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
@@ -3861,23 +3936,25 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B14" s="1">
-        <v>109061</v>
+        <v>109250</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>1030</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>1397</v>
+        <v>1197</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
@@ -3885,23 +3962,25 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B15" s="1">
-        <v>109250</v>
+        <v>109260</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="3">
-        <v>1030</v>
+        <v>1670</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>1197</v>
+        <v>1943</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
@@ -3909,23 +3988,25 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B16" s="1">
-        <v>109260</v>
+        <v>109270</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="3">
-        <v>1670</v>
+        <v>2780</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1943</v>
+        <v>3234</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
@@ -3933,12 +4014,14 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B17" s="1">
-        <v>109270</v>
+        <v>109271</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="3">
@@ -3957,23 +4040,25 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B18" s="1">
-        <v>109271</v>
+        <v>150010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="3">
-        <v>2780</v>
+        <v>2530</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>3234</v>
+        <v>2940</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
@@ -3981,48 +4066,66 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B19" s="1">
-        <v>150010</v>
+        <v>10001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="3">
-        <v>2530</v>
+        <v>4160</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="0"/>
+        <f>D19*E19</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>2940</v>
+        <v>4851</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f>D19*G19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="E20" s="3">
+        <v>4160</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20*E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4851</v>
+      </c>
+      <c r="H20" s="1">
+        <f>D20*G20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>10001</v>
+        <v>10051</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3">
@@ -4041,23 +4144,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1"/>
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B22" s="1">
-        <v>10006</v>
+        <v>100100</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="3">
-        <v>4160</v>
+        <v>5020</v>
       </c>
       <c r="F22" s="1">
         <f>D22*E22</f>
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>4851</v>
+        <v>5849</v>
       </c>
       <c r="H22" s="1">
         <f>D22*G22</f>
@@ -4065,23 +4170,25 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1"/>
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="1">
-        <v>10051</v>
+        <v>100101</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="3">
-        <v>4160</v>
+        <v>5020</v>
       </c>
       <c r="F23" s="1">
         <f>D23*E23</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>4851</v>
+        <v>5849</v>
       </c>
       <c r="H23" s="1">
         <f>D23*G23</f>
@@ -4089,35 +4196,51 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1">
+        <v>200120</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="E24" s="3">
+        <v>5020</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5849</v>
+      </c>
+      <c r="H24" s="1">
+        <f>D24*G24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
+      <c r="A25" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B25" s="1">
-        <v>100100</v>
+        <v>109230</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3">
-        <v>5020</v>
+        <v>4560</v>
       </c>
       <c r="F25" s="1">
         <f>D25*E25</f>
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>5849</v>
+        <v>5313</v>
       </c>
       <c r="H25" s="1">
         <f>D25*G25</f>
@@ -4125,23 +4248,25 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B26" s="1">
-        <v>100101</v>
+        <v>109240</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3">
-        <v>5020</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="1">
         <f>D26*E26</f>
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>5849</v>
+        <v>6752</v>
       </c>
       <c r="H26" s="1">
         <f>D26*G26</f>
@@ -4149,23 +4274,25 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B27" s="1">
-        <v>200120</v>
+        <v>809010</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3">
-        <v>5020</v>
+        <v>5040</v>
       </c>
       <c r="F27" s="1">
         <f>D27*E27</f>
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>5849</v>
+        <v>5880</v>
       </c>
       <c r="H27" s="1">
         <f>D27*G27</f>
@@ -4173,167 +4300,207 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1">
+        <v>809020</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="E28" s="3">
+        <v>5040</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28*E28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5880</v>
+      </c>
+      <c r="H28" s="1">
+        <f>D28*G28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
-        <v>109230</v>
+        <v>200000</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3">
-        <v>4560</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="1">
-        <f>D29*E29</f>
+        <f t="shared" ref="F29:F45" si="2">D29*E29</f>
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>5313</v>
+        <v>1397</v>
       </c>
       <c r="H29" s="1">
-        <f>D29*G29</f>
+        <f t="shared" ref="H29:H45" si="3">D29*G29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B30" s="1">
-        <v>109240</v>
+        <v>200010</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="3">
-        <v>5800</v>
+        <v>950</v>
       </c>
       <c r="F30" s="1">
-        <f>D30*E30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>6752</v>
+        <v>1124</v>
       </c>
       <c r="H30" s="1">
-        <f>D30*G30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B31" s="1">
-        <v>809010</v>
+        <v>200020</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3">
-        <v>5040</v>
+        <v>1420</v>
       </c>
       <c r="F31" s="1">
-        <f>D31*E31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>5880</v>
+        <v>1680</v>
       </c>
       <c r="H31" s="1">
-        <f>D31*G31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B32" s="1">
-        <v>809020</v>
+        <v>200030</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3">
-        <v>5040</v>
+        <v>770</v>
       </c>
       <c r="F32" s="1">
-        <f>D32*E32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>5880</v>
+        <v>914</v>
       </c>
       <c r="H32" s="1">
-        <f>D32*G32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1">
+        <v>200040</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="E33" s="3">
+        <v>710</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>840</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1">
-        <v>200000</v>
+        <v>200060</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3">
-        <v>1200</v>
+        <v>1420</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F50" si="2">D34*E34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>1397</v>
+        <v>1680</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H50" si="3">D34*G34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B35" s="1">
-        <v>200010</v>
+        <v>200070</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3">
-        <v>950</v>
+        <v>710</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>1124</v>
+        <v>840</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="3"/>
@@ -4341,23 +4508,25 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B36" s="1">
-        <v>200020</v>
+        <v>200100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3">
-        <v>1420</v>
+        <v>1200</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>1680</v>
+        <v>1397</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="3"/>
@@ -4365,23 +4534,25 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B37" s="1">
-        <v>200030</v>
+        <v>200110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3">
-        <v>770</v>
+        <v>1420</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>914</v>
+        <v>1680</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="3"/>
@@ -4389,23 +4560,25 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B38" s="1">
-        <v>200040</v>
+        <v>200160</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3">
-        <v>710</v>
+        <v>1350</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>840</v>
+        <v>1565</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="3"/>
@@ -4413,23 +4586,25 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B39" s="1">
-        <v>200060</v>
+        <v>200170</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3">
-        <v>1420</v>
+        <v>1590</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>1680</v>
+        <v>1848</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="3"/>
@@ -4437,23 +4612,25 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B40" s="1">
-        <v>200070</v>
+        <v>200180</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3">
-        <v>710</v>
+        <v>1350</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>840</v>
+        <v>1565</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="3"/>
@@ -4461,23 +4638,25 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B41" s="1">
-        <v>200100</v>
+        <v>200190</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3">
-        <v>1200</v>
+        <v>1670</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>1397</v>
+        <v>1943</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="3"/>
@@ -4485,23 +4664,25 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B42" s="1">
-        <v>200110</v>
+        <v>209200</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="3">
-        <v>1420</v>
+        <v>1520</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1680</v>
+        <v>1775</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="3"/>
@@ -4509,23 +4690,25 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B43" s="1">
-        <v>200160</v>
+        <v>209210</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="3">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>1565</v>
+        <v>1628</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="3"/>
@@ -4533,23 +4716,25 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B44" s="1">
-        <v>200170</v>
+        <v>209220</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="3">
-        <v>1590</v>
+        <v>1400</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>1848</v>
+        <v>1628</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="3"/>
@@ -4557,23 +4742,25 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B45" s="1">
-        <v>200180</v>
+        <v>917000</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="3">
-        <v>1350</v>
+        <v>4600</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>1565</v>
+        <v>5355</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="3"/>
@@ -4581,263 +4768,311 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B46" s="1">
-        <v>200190</v>
+        <v>110000</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3">
-        <v>1670</v>
+        <v>2560</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="2"/>
+        <f>D46*E46</f>
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>1943</v>
+        <v>2982</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="3"/>
+        <f>D46*G46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B47" s="1">
-        <v>209200</v>
+        <v>110010</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3">
-        <v>1520</v>
+        <v>1850</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="2"/>
+        <f>D47*E47</f>
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>1775</v>
+        <v>2163</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="3"/>
+        <f>D47*G47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B48" s="1">
-        <v>209210</v>
+        <v>110020</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="3">
-        <v>1400</v>
+        <v>3380</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="2"/>
+        <f>D48*E48</f>
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>1628</v>
+        <v>3927</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="3"/>
+        <f>D48*G48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B49" s="1">
-        <v>209220</v>
+        <v>10005</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="3">
-        <v>1400</v>
+        <v>2780</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F49:F58" si="4">D49*E49</f>
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>1628</v>
+        <v>3245</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H49:H58" si="5">D49*G49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B50" s="1">
-        <v>917000</v>
+        <v>809090</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>5355</v>
+        <v>5124</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1">
+        <v>850011</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="E51" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2080</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52" s="1">
-        <v>110000</v>
+        <v>850021</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3">
-        <v>2560</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="1">
-        <f>D52*E52</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>2982</v>
+        <v>2080</v>
       </c>
       <c r="H52" s="1">
-        <f>D52*G52</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B53" s="1">
-        <v>110010</v>
+        <v>850031</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="F53" s="1">
-        <f>D53*E53</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>2163</v>
+        <v>2080</v>
       </c>
       <c r="H53" s="1">
-        <f>D53*G53</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B54" s="1">
-        <v>110020</v>
+        <v>850041</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="3">
-        <v>3380</v>
+        <v>1800</v>
       </c>
       <c r="F54" s="1">
-        <f>D54*E54</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>3927</v>
+        <v>2080</v>
       </c>
       <c r="H54" s="1">
-        <f>D54*G54</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1">
+        <v>850051</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="E55" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>2080</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="1">
-        <v>10005</v>
+        <v>850061</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="3">
-        <v>2780</v>
+        <v>1800</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" ref="F56:F65" si="4">D56*E56</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>3245</v>
+        <v>2080</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" ref="H56:H65" si="5">D56*G56</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B57" s="1">
-        <v>809090</v>
+        <v>850071</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="3">
-        <v>4400</v>
+        <v>1800</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>5124</v>
+        <v>2080</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="5"/>
@@ -4845,12 +5080,14 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B58" s="1">
-        <v>850011</v>
+        <v>850081</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="3">
@@ -4868,252 +5105,282 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1"/>
+    <row r="59" spans="1:8" ht="16">
+      <c r="A59" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B59" s="1">
-        <v>850021</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>66</v>
+        <v>500120</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>7580</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="4"/>
+        <f>D59*E59</f>
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>2080</v>
+        <v>8841</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1"/>
+        <f>D59*G59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16">
+      <c r="A60" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B60" s="1">
-        <v>850031</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>67</v>
+        <v>500122</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="3">
-        <v>1800</v>
+        <v>7900</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="4"/>
+        <f>D60*E60</f>
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>2080</v>
+        <v>9219</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1"/>
+        <f>D60*G60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B61" s="1">
-        <v>850041</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>68</v>
+        <v>500123</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="3">
-        <v>1800</v>
+        <v>7280</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="4"/>
+        <f>D61*E61</f>
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>2080</v>
+        <v>8495</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1"/>
+        <f>D61*G61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16">
+      <c r="A62" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B62" s="1">
-        <v>850051</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>69</v>
+        <v>500132</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>16350</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="4"/>
+        <f>D62*E62</f>
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>2080</v>
+        <v>19068</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1">
-        <v>850061</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>2080</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1">
-        <v>850071</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>2080</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1"/>
+        <f>D62*G62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16">
+      <c r="A63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="9">
+        <v>500140</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10">
+        <v>13740</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>16034</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16">
+      <c r="A64" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="11">
+        <v>500150</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12">
+        <v>14980</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>17472</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16">
+      <c r="A65" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B65" s="1">
-        <v>850081</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>600010</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3">
-        <v>1800</v>
+        <v>1216</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="4"/>
+        <f>D65*E65</f>
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>2080</v>
+        <v>1596</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+        <f>D65*G65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16">
+      <c r="A66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="1">
+        <v>10300</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="E66" s="1">
+        <v>940</v>
+      </c>
+      <c r="F66" s="1">
+        <f>D66*E66</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1103</v>
+      </c>
+      <c r="H66" s="1">
+        <f>D66*G66</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="16">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1">
-        <v>500120</v>
+        <v>10305</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="3">
-        <v>7580</v>
+        <v>1230</v>
       </c>
       <c r="F67" s="1">
         <f>D67*E67</f>
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>8841</v>
+        <v>1433</v>
       </c>
       <c r="H67" s="1">
         <f>D67*G67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B68" s="1">
-        <v>500122</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>75</v>
+        <v>10306</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="3">
-        <v>7900</v>
+      <c r="E68" s="1">
+        <v>940</v>
       </c>
       <c r="F68" s="1">
         <f>D68*E68</f>
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>9219</v>
+        <v>1103</v>
       </c>
       <c r="H68" s="1">
         <f>D68*G68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B69" s="1">
-        <v>500123</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>76</v>
+        <v>10200</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="3">
-        <v>7280</v>
+        <v>2880</v>
       </c>
       <c r="F69" s="1">
         <f>D69*E69</f>
         <v>0</v>
       </c>
       <c r="G69" s="3">
-        <v>8495</v>
+        <v>3360</v>
       </c>
       <c r="H69" s="1">
         <f>D69*G69</f>
@@ -5121,35 +5388,51 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="1">
+        <v>10211</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" ht="16">
+      <c r="E70" s="3">
+        <v>2410</v>
+      </c>
+      <c r="F70" s="1">
+        <f>D70*E70</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2804</v>
+      </c>
+      <c r="H70" s="1">
+        <f>D70*G70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1">
-        <v>500132</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>78</v>
+        <v>11601</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="3">
-        <v>16350</v>
+        <v>2190</v>
       </c>
       <c r="F71" s="1">
         <f>D71*E71</f>
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <v>19068</v>
+        <v>2552</v>
       </c>
       <c r="H71" s="1">
         <f>D71*G71</f>
@@ -5157,671 +5440,805 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="1">
+        <v>10104</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="16">
+      <c r="E72" s="3">
+        <v>2880</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" ref="F72:F86" si="6">D72*E72</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3360</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" ref="H72:H86" si="7">D72*G72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1">
-        <v>500140</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>80</v>
+        <v>10113</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="3">
-        <v>13740</v>
+        <v>1510</v>
       </c>
       <c r="F73" s="1">
-        <f>D73*E73</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G73" s="3">
-        <v>16034</v>
+        <v>1754</v>
       </c>
       <c r="H73" s="1">
-        <f>D73*G73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16">
-      <c r="A74" s="1"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="32">
+      <c r="A74" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B74" s="1">
-        <v>500150</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>81</v>
+        <v>10204</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="3">
-        <v>14980</v>
+        <v>2880</v>
       </c>
       <c r="F74" s="1">
-        <f>D74*E74</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>17472</v>
+        <v>3360</v>
       </c>
       <c r="H74" s="1">
-        <f>D74*G74</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10800</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" ht="16">
+      <c r="E75" s="3">
+        <v>1820</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2111</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1">
-        <v>600010</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>83</v>
+        <v>10801</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="3">
-        <v>1216</v>
+        <v>2460</v>
       </c>
       <c r="F76" s="1">
-        <f>D76*E76</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>1596</v>
+        <v>2856</v>
       </c>
       <c r="H76" s="1">
-        <f>D76*G76</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10803</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="16">
+      <c r="E77" s="3">
+        <v>2750</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>3192</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1">
-        <v>10300</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>85</v>
+        <v>11001</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1">
-        <v>940</v>
+      <c r="E78" s="3">
+        <v>2480</v>
       </c>
       <c r="F78" s="1">
-        <f>D78*E78</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G78" s="3">
-        <v>1103</v>
+        <v>2888</v>
       </c>
       <c r="H78" s="1">
-        <f>D78*G78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16">
-      <c r="A79" s="1"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B79" s="1">
-        <v>10305</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>86</v>
+        <v>11400</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="3">
-        <v>1230</v>
+        <v>2670</v>
       </c>
       <c r="F79" s="1">
-        <f>D79*E79</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>1433</v>
+        <v>3119</v>
       </c>
       <c r="H79" s="1">
-        <f>D79*G79</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B80" s="1">
-        <v>10306</v>
+        <v>11401</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="1">
-        <v>940</v>
+      <c r="E80" s="3">
+        <v>1640</v>
       </c>
       <c r="F80" s="1">
-        <f>D80*E80</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <v>1103</v>
+        <v>1911</v>
       </c>
       <c r="H80" s="1">
-        <f>D80*G80</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="1">
+        <v>11600</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="E81" s="3">
+        <v>1550</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1806</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="1">
-        <v>10200</v>
+        <v>11602</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="3">
-        <v>2880</v>
+        <v>1890</v>
       </c>
       <c r="F82" s="1">
-        <f>D82*E82</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G82" s="3">
-        <v>3360</v>
+        <v>2205</v>
       </c>
       <c r="H82" s="1">
-        <f>D82*G82</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B83" s="1">
-        <v>10211</v>
+        <v>11603</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="3">
-        <v>2410</v>
+        <v>2535</v>
       </c>
       <c r="F83" s="1">
-        <f>D83*E83</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>2804</v>
+        <v>2930</v>
       </c>
       <c r="H83" s="1">
-        <f>D83*G83</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B84" s="1">
-        <v>11601</v>
+        <v>18207</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="3">
-        <v>2190</v>
+        <v>1550</v>
       </c>
       <c r="F84" s="1">
-        <f>D84*E84</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <v>2552</v>
+        <v>1806</v>
       </c>
       <c r="H84" s="1">
-        <f>D84*G84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="1">
+        <v>18208</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="E85" s="3">
+        <v>2110</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2457</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1">
-        <v>10104</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>93</v>
+        <v>18500</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="3">
-        <v>2880</v>
+        <v>1550</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F100" si="6">D86*E86</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>3360</v>
+        <v>1806</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" ref="H86:H100" si="7">D86*G86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16">
+      <c r="A87" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B87" s="1">
-        <v>10113</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>10206</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="3">
-        <v>1510</v>
+        <v>2200</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="6"/>
+        <f>D87*E87</f>
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>1754</v>
+        <v>2583</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="32">
-      <c r="A88" s="1"/>
+        <f>D87*G87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16">
+      <c r="A88" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B88" s="1">
-        <v>10204</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>95</v>
+        <v>10207</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="3">
-        <v>2880</v>
+        <v>1710</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="6"/>
+        <f>D88*E88</f>
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>3360</v>
+        <v>1995</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1"/>
+        <f>D88*G88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="34">
+      <c r="A89" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B89" s="1">
-        <v>10800</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>10105</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="3">
-        <v>1820</v>
+        <v>1710</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="6"/>
+        <f>D89*E89</f>
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>2111</v>
+        <v>1995</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1"/>
+        <f>D89*G89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="36">
+      <c r="A90" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B90" s="1">
-        <v>10801</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>97</v>
+        <v>10108</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="3">
-        <v>2460</v>
+        <v>1710</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="6"/>
+        <f>D90*E90</f>
         <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>2856</v>
+        <v>1995</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1"/>
+        <f>D90*G90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="36">
+      <c r="A91" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B91" s="1">
-        <v>10803</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>98</v>
+        <v>10109</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="3">
-        <v>2750</v>
+        <v>1450</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="6"/>
+        <f>D91*E91</f>
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>3192</v>
+        <v>1701</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1"/>
+        <f>D91*G91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="36">
+      <c r="A92" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B92" s="1">
-        <v>11001</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>99</v>
+        <v>10403</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="3">
-        <v>2480</v>
+        <v>1350</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="6"/>
+        <f>D92*E92</f>
         <v>0</v>
       </c>
       <c r="G92" s="3">
-        <v>2888</v>
+        <v>1575</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1"/>
+        <f>D92*G92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16">
+      <c r="A93" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B93" s="1">
-        <v>11400</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>100</v>
+        <v>10601</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D93" s="1"/>
-      <c r="E93" s="3">
-        <v>2670</v>
+      <c r="E93" s="1">
+        <v>940</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="6"/>
+        <f>D93*E93</f>
         <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>3119</v>
+        <v>1103</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1"/>
+        <f>D93*G93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="34">
+      <c r="A94" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B94" s="1">
-        <v>11401</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>101</v>
+        <v>11222</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="D94" s="1"/>
-      <c r="E94" s="3">
-        <v>1640</v>
+      <c r="E94" s="1">
+        <v>670</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="6"/>
+        <f>D94*E94</f>
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>1911</v>
+        <v>777</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1"/>
+        <f>D94*G94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16">
+      <c r="A95" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B95" s="1">
-        <v>11600</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>102</v>
+        <v>10806</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="3">
-        <v>1550</v>
+        <v>1260</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="6"/>
+        <f>D95*E95</f>
         <v>0</v>
       </c>
       <c r="G95" s="3">
-        <v>1806</v>
+        <v>1470</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1"/>
+        <f>D95*G95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16">
+      <c r="A96" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B96" s="1">
-        <v>11602</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>103</v>
+        <v>19805</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="3">
-        <v>1890</v>
+        <v>1170</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="6"/>
+        <f>D96*E96</f>
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>2205</v>
+        <v>1344</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1"/>
+        <f>D96*G96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16">
+      <c r="A97" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B97" s="1">
-        <v>11603</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>104</v>
+        <v>10500</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D97" s="1"/>
-      <c r="E97" s="3">
-        <v>2535</v>
+      <c r="E97" s="1">
+        <v>830</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="6"/>
+        <f>D97*E97</f>
         <v>0</v>
       </c>
       <c r="G97" s="3">
-        <v>2930</v>
+        <v>966</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1"/>
+        <f>D97*G97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16">
+      <c r="A98" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B98" s="1">
-        <v>18207</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>10504</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D98" s="1"/>
-      <c r="E98" s="3">
-        <v>1550</v>
+      <c r="E98" s="1">
+        <v>940</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="6"/>
+        <f>D98*E98</f>
         <v>0</v>
       </c>
       <c r="G98" s="3">
-        <v>1806</v>
+        <v>1103</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="16">
-      <c r="A99" s="1"/>
+        <f>D98*G98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="34">
+      <c r="A99" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B99" s="1">
-        <v>18208</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>106</v>
+        <v>11220</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="D99" s="1"/>
-      <c r="E99" s="3">
-        <v>2110</v>
+      <c r="E99" s="1">
+        <v>670</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="6"/>
+        <f>D99*E99</f>
         <v>0</v>
       </c>
       <c r="G99" s="3">
-        <v>2457</v>
+        <v>777</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="16">
-      <c r="A100" s="1"/>
+        <f>D99*G99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="34">
+      <c r="A100" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B100" s="1">
-        <v>18500</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>107</v>
+        <v>11221</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D100" s="1"/>
-      <c r="E100" s="3">
-        <v>1550</v>
+      <c r="E100" s="1">
+        <v>670</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="6"/>
+        <f>D100*E100</f>
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>1806</v>
+        <v>777</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+        <f>D100*G100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16">
+      <c r="A101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10501</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="E101" s="1">
+        <v>940</v>
+      </c>
+      <c r="F101" s="1">
+        <f>D101*E101</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1103</v>
+      </c>
+      <c r="H101" s="1">
+        <f>D101*G101</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="16">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B102" s="1">
-        <v>10206</v>
+        <v>10550</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="3">
-        <v>2200</v>
+      <c r="E102" s="1">
+        <v>940</v>
       </c>
       <c r="F102" s="1">
         <f>D102*E102</f>
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>2583</v>
+        <v>1103</v>
       </c>
       <c r="H102" s="1">
         <f>D102*G102</f>
@@ -5829,681 +6246,243 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="16">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B103" s="1">
-        <v>10207</v>
+        <v>10552</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="3">
-        <v>1710</v>
+      <c r="E103" s="1">
+        <v>940</v>
       </c>
       <c r="F103" s="1">
         <f>D103*E103</f>
         <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>1995</v>
+        <v>1103</v>
       </c>
       <c r="H103" s="1">
         <f>D103*G103</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+    <row r="104" spans="1:8" ht="16">
+      <c r="A104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="1">
+        <v>20017</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" ht="34">
+      <c r="E104" s="3">
+        <v>1350</v>
+      </c>
+      <c r="F104" s="1">
+        <f>D104*E104</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1575</v>
+      </c>
+      <c r="H104" s="1">
+        <f>D104*G104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B105" s="1">
-        <v>10105</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>112</v>
+        <v>20018</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D105" s="1"/>
-      <c r="E105" s="3">
-        <v>1710</v>
+      <c r="E105" s="1">
+        <v>846</v>
       </c>
       <c r="F105" s="1">
         <f>D105*E105</f>
         <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>1995</v>
+        <v>987</v>
       </c>
       <c r="H105" s="1">
         <f>D105*G105</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="36">
-      <c r="A106" s="1"/>
+    <row r="106" spans="1:8" ht="16">
+      <c r="A106" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B106" s="1">
-        <v>10108</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>113</v>
+        <v>20019</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="3">
-        <v>1710</v>
+      <c r="E106" s="1">
+        <v>846</v>
       </c>
       <c r="F106" s="1">
         <f>D106*E106</f>
         <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>1995</v>
+        <v>987</v>
       </c>
       <c r="H106" s="1">
         <f>D106*G106</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="36">
-      <c r="A107" s="1"/>
+    <row r="107" spans="1:8" ht="16">
+      <c r="A107" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B107" s="1">
-        <v>10109</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>114</v>
+        <v>10604</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="3">
-        <v>1450</v>
+      <c r="E107" s="1">
+        <v>430</v>
       </c>
       <c r="F107" s="1">
         <f>D107*E107</f>
         <v>0</v>
       </c>
-      <c r="G107" s="3">
-        <v>1701</v>
+      <c r="G107" s="1">
+        <v>504</v>
       </c>
       <c r="H107" s="1">
         <f>D107*G107</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="36">
-      <c r="A108" s="1"/>
+    <row r="108" spans="1:8" ht="16">
+      <c r="A108" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B108" s="1">
-        <v>10403</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>115</v>
+        <v>10603</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="3">
-        <v>1350</v>
+      <c r="E108" s="1">
+        <v>790</v>
       </c>
       <c r="F108" s="1">
         <f>D108*E108</f>
         <v>0</v>
       </c>
-      <c r="G108" s="3">
-        <v>1575</v>
+      <c r="G108" s="1">
+        <v>924</v>
       </c>
       <c r="H108" s="1">
         <f>D108*G108</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+    <row r="109" spans="1:8" ht="16">
+      <c r="A109" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="1">
+        <v>19114</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="E109" s="1">
+        <v>340</v>
+      </c>
+      <c r="F109" s="1">
+        <f>D109*E109</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="1">
+        <v>399</v>
+      </c>
+      <c r="H109" s="1">
+        <f>D109*G109</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="16">
       <c r="A110" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B110" s="1">
-        <v>10601</v>
+        <v>30000</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
-        <v>940</v>
+        <v>530</v>
       </c>
       <c r="F110" s="1">
         <f>D110*E110</f>
         <v>0</v>
       </c>
-      <c r="G110" s="3">
-        <v>1103</v>
+      <c r="G110" s="1">
+        <v>614</v>
       </c>
       <c r="H110" s="1">
         <f>D110*G110</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="34">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:8" ht="16">
+      <c r="A111" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B111" s="1">
-        <v>11222</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>118</v>
+        <v>37005</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="1">
-        <v>670</v>
+      <c r="E111" s="3">
+        <v>1320</v>
       </c>
       <c r="F111" s="1">
         <f>D111*E111</f>
         <v>0</v>
       </c>
       <c r="G111" s="3">
-        <v>777</v>
+        <v>1544</v>
       </c>
       <c r="H111" s="1">
         <f>D111*G111</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" ht="16">
-      <c r="A113" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="1">
-        <v>10806</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="3">
-        <v>1260</v>
-      </c>
-      <c r="F113" s="1">
-        <f>D113*E113</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
-        <v>1470</v>
-      </c>
-      <c r="H113" s="1">
-        <f>D113*G113</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="16">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1">
-        <v>19805</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="3">
-        <v>1170</v>
-      </c>
-      <c r="F114" s="1">
-        <f>D114*E114</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="3">
-        <v>1344</v>
-      </c>
-      <c r="H114" s="1">
-        <f>D114*G114</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="1:8" ht="16">
-      <c r="A116" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" s="1">
-        <v>10500</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1">
-        <v>830</v>
-      </c>
-      <c r="F116" s="1">
-        <f>D116*E116</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="3">
-        <v>966</v>
-      </c>
-      <c r="H116" s="1">
-        <f>D116*G116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="16">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1">
-        <v>10504</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1">
-        <v>940</v>
-      </c>
-      <c r="F117" s="1">
-        <f>D117*E117</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="3">
-        <v>1103</v>
-      </c>
-      <c r="H117" s="1">
-        <f>D117*G117</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="34">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1">
-        <v>11220</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1">
-        <v>670</v>
-      </c>
-      <c r="F118" s="1">
-        <f>D118*E118</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="3">
-        <v>777</v>
-      </c>
-      <c r="H118" s="1">
-        <f>D118*G118</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="34">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1">
-        <v>11221</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1">
-        <v>670</v>
-      </c>
-      <c r="F119" s="1">
-        <f>D119*E119</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="3">
-        <v>777</v>
-      </c>
-      <c r="H119" s="1">
-        <f>D119*G119</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="16">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1">
-        <v>10501</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1">
-        <v>940</v>
-      </c>
-      <c r="F120" s="1">
-        <f>D120*E120</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="3">
-        <v>1103</v>
-      </c>
-      <c r="H120" s="1">
-        <f>D120*G120</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-    </row>
-    <row r="122" spans="1:8" ht="16">
-      <c r="A122" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122" s="1">
-        <v>10550</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1">
-        <v>940</v>
-      </c>
-      <c r="F122" s="1">
-        <f>D122*E122</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="3">
-        <v>1103</v>
-      </c>
-      <c r="H122" s="1">
-        <f>D122*G122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="16">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1">
-        <v>10552</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1">
-        <v>940</v>
-      </c>
-      <c r="F123" s="1">
-        <f>D123*E123</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="3">
-        <v>1103</v>
-      </c>
-      <c r="H123" s="1">
-        <f>D123*G123</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-    </row>
-    <row r="125" spans="1:8" ht="16">
-      <c r="A125" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125" s="1">
-        <v>20017</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="3">
-        <v>1350</v>
-      </c>
-      <c r="F125" s="1">
-        <f>D125*E125</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="3">
-        <v>1575</v>
-      </c>
-      <c r="H125" s="1">
-        <f>D125*G125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="16">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1">
-        <v>20018</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1">
-        <v>846</v>
-      </c>
-      <c r="F126" s="1">
-        <f>D126*E126</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="3">
-        <v>987</v>
-      </c>
-      <c r="H126" s="1">
-        <f>D126*G126</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="16">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1">
-        <v>20019</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1">
-        <v>846</v>
-      </c>
-      <c r="F127" s="1">
-        <f>D127*E127</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="3">
-        <v>987</v>
-      </c>
-      <c r="H127" s="1">
-        <f>D127*G127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" ht="16">
-      <c r="A129" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B129" s="1">
-        <v>10604</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1">
-        <v>430</v>
-      </c>
-      <c r="F129" s="1">
-        <f>D129*E129</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="1">
-        <v>504</v>
-      </c>
-      <c r="H129" s="1">
-        <f>D129*G129</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-    </row>
-    <row r="131" spans="1:8" ht="16">
-      <c r="A131" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B131" s="1">
-        <v>10603</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1">
-        <v>790</v>
-      </c>
-      <c r="F131" s="1">
-        <f>D131*E131</f>
-        <v>0</v>
-      </c>
-      <c r="G131" s="1">
-        <v>924</v>
-      </c>
-      <c r="H131" s="1">
-        <f>D131*G131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="16">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1">
-        <v>19114</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1">
-        <v>340</v>
-      </c>
-      <c r="F132" s="1">
-        <f>D132*E132</f>
-        <v>0</v>
-      </c>
-      <c r="G132" s="1">
-        <v>399</v>
-      </c>
-      <c r="H132" s="1">
-        <f>D132*G132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="16">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1">
-        <v>30000</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1">
-        <v>530</v>
-      </c>
-      <c r="F133" s="1">
-        <f>D133*E133</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="1">
-        <v>614</v>
-      </c>
-      <c r="H133" s="1">
-        <f>D133*G133</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="16">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1">
-        <v>37005</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="3">
-        <v>1320</v>
-      </c>
-      <c r="F134" s="1">
-        <f>D134*E134</f>
-        <v>0</v>
-      </c>
-      <c r="G134" s="3">
-        <v>1544</v>
-      </c>
-      <c r="H134" s="1">
-        <f>D134*G134</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D21:D23 D4:D19 D29:D32 D34:D50 C25:D27 B29:B32 D52:D54 D56:D65 D67:D69 D71 D73:D74 D76 D78:D80 D82:D84 D86:D100 D102:D103 D105:D108 D110:D111 D113:D114 D116:D120 D122:D123 D125:D127 D129 D131:D134" xr:uid="{1692402F-28F3-C04E-8783-8D60E144604A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21 C22:D24 B25:B28 D25:D62 D65:D111" xr:uid="{1692402F-28F3-C04E-8783-8D60E144604A}">
       <formula1>數量</formula1>
     </dataValidation>
   </dataValidations>

--- a/丞燕產品表新版.xlsx
+++ b/丞燕產品表新版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsaiwenzhe/PycharmProjects/python_01/chen-yen-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E387A-DC01-524F-B311-63A612068C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AB34B-0B50-A440-99A1-CD917610C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{538792E1-593F-4146-9932-8EFA0D39105A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="142">
   <si>
     <t>大項</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2361,14 +2361,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>總積分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>總價格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>禧悅計劃</t>
@@ -3571,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFDBBA-64EE-4543-B25F-632AA2660F62}">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3583,7 +3575,7 @@
     <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3608,14 +3600,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16">
+    </row>
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3640,16 +3626,8 @@
         <f>D2*G2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <f>SUM(F2:F111)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <f>SUM(H2:H111)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16">
+    </row>
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3675,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:8" ht="16">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3701,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3753,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:8" ht="16">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3779,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:8" ht="16">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:8" ht="16">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -3831,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3857,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3883,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3909,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3935,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -3961,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4080,14 +4058,14 @@
         <v>4160</v>
       </c>
       <c r="F19" s="1">
-        <f>D19*E19</f>
+        <f t="shared" ref="F19:F28" si="2">D19*E19</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>4851</v>
       </c>
       <c r="H19" s="1">
-        <f>D19*G19</f>
+        <f t="shared" ref="H19:H28" si="3">D19*G19</f>
         <v>0</v>
       </c>
     </row>
@@ -4106,14 +4084,14 @@
         <v>4160</v>
       </c>
       <c r="F20" s="1">
-        <f>D20*E20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>4851</v>
       </c>
       <c r="H20" s="1">
-        <f>D20*G20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4132,14 +4110,14 @@
         <v>4160</v>
       </c>
       <c r="F21" s="1">
-        <f>D21*E21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>4851</v>
       </c>
       <c r="H21" s="1">
-        <f>D21*G21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4158,14 +4136,14 @@
         <v>5020</v>
       </c>
       <c r="F22" s="1">
-        <f>D22*E22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>5849</v>
       </c>
       <c r="H22" s="1">
-        <f>D22*G22</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4184,14 +4162,14 @@
         <v>5020</v>
       </c>
       <c r="F23" s="1">
-        <f>D23*E23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>5849</v>
       </c>
       <c r="H23" s="1">
-        <f>D23*G23</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4210,14 +4188,14 @@
         <v>5020</v>
       </c>
       <c r="F24" s="1">
-        <f>D24*E24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>5849</v>
       </c>
       <c r="H24" s="1">
-        <f>D24*G24</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4236,14 +4214,14 @@
         <v>4560</v>
       </c>
       <c r="F25" s="1">
-        <f>D25*E25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>5313</v>
       </c>
       <c r="H25" s="1">
-        <f>D25*G25</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4262,14 +4240,14 @@
         <v>5800</v>
       </c>
       <c r="F26" s="1">
-        <f>D26*E26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>6752</v>
       </c>
       <c r="H26" s="1">
-        <f>D26*G26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4288,14 +4266,14 @@
         <v>5040</v>
       </c>
       <c r="F27" s="1">
-        <f>D27*E27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>5880</v>
       </c>
       <c r="H27" s="1">
-        <f>D27*G27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4314,14 +4292,14 @@
         <v>5040</v>
       </c>
       <c r="F28" s="1">
-        <f>D28*E28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>5880</v>
       </c>
       <c r="H28" s="1">
-        <f>D28*G28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4340,14 +4318,14 @@
         <v>1200</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ref="F29:F45" si="2">D29*E29</f>
+        <f t="shared" ref="F29:F45" si="4">D29*E29</f>
         <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>1397</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:H45" si="3">D29*G29</f>
+        <f t="shared" ref="H29:H45" si="5">D29*G29</f>
         <v>0</v>
       </c>
     </row>
@@ -4366,14 +4344,14 @@
         <v>950</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G30" s="3">
         <v>1124</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4392,14 +4370,14 @@
         <v>1420</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>1680</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4418,14 +4396,14 @@
         <v>770</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>914</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4444,14 +4422,14 @@
         <v>710</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>840</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4470,14 +4448,14 @@
         <v>1420</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G34" s="3">
         <v>1680</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4496,14 +4474,14 @@
         <v>710</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>840</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4522,14 +4500,14 @@
         <v>1200</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G36" s="3">
         <v>1397</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4548,14 +4526,14 @@
         <v>1420</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
         <v>1680</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4574,14 +4552,14 @@
         <v>1350</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G38" s="3">
         <v>1565</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4600,14 +4578,14 @@
         <v>1590</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G39" s="3">
         <v>1848</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4626,14 +4604,14 @@
         <v>1350</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G40" s="3">
         <v>1565</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4652,14 +4630,14 @@
         <v>1670</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>1943</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4678,14 +4656,14 @@
         <v>1520</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>1775</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4704,14 +4682,14 @@
         <v>1400</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>1628</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4730,14 +4708,14 @@
         <v>1400</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>1628</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4756,14 +4734,14 @@
         <v>4600</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>5355</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4860,14 +4838,14 @@
         <v>2780</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ref="F49:F58" si="4">D49*E49</f>
+        <f t="shared" ref="F49:F58" si="6">D49*E49</f>
         <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>3245</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" ref="H49:H58" si="5">D49*G49</f>
+        <f t="shared" ref="H49:H58" si="7">D49*G49</f>
         <v>0</v>
       </c>
     </row>
@@ -4886,14 +4864,14 @@
         <v>4400</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G50" s="3">
         <v>5124</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4912,14 +4890,14 @@
         <v>1800</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G51" s="3">
         <v>2080</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4938,14 +4916,14 @@
         <v>1800</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>2080</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4964,14 +4942,14 @@
         <v>1800</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G53" s="3">
         <v>2080</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4990,14 +4968,14 @@
         <v>1800</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>2080</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5016,14 +4994,14 @@
         <v>1800</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G55" s="3">
         <v>2080</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5042,14 +5020,14 @@
         <v>1800</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G56" s="3">
         <v>2080</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5068,14 +5046,14 @@
         <v>1800</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>2080</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5094,14 +5072,14 @@
         <v>1800</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>2080</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5211,13 +5189,13 @@
     </row>
     <row r="63" spans="1:8" ht="16">
       <c r="A63" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" s="9">
         <v>500140</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="10">
@@ -5235,13 +5213,13 @@
     </row>
     <row r="64" spans="1:8" ht="16">
       <c r="A64" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="11">
         <v>500150</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="12">
@@ -5265,21 +5243,21 @@
         <v>600010</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3">
         <v>1216</v>
       </c>
       <c r="F65" s="1">
-        <f>D65*E65</f>
+        <f t="shared" ref="F65:F71" si="8">D65*E65</f>
         <v>0</v>
       </c>
       <c r="G65" s="3">
         <v>1596</v>
       </c>
       <c r="H65" s="1">
-        <f>D65*G65</f>
+        <f t="shared" ref="H65:H71" si="9">D65*G65</f>
         <v>0</v>
       </c>
     </row>
@@ -5298,14 +5276,14 @@
         <v>940</v>
       </c>
       <c r="F66" s="1">
-        <f>D66*E66</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>1103</v>
       </c>
       <c r="H66" s="1">
-        <f>D66*G66</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,14 +5302,14 @@
         <v>1230</v>
       </c>
       <c r="F67" s="1">
-        <f>D67*E67</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G67" s="3">
         <v>1433</v>
       </c>
       <c r="H67" s="1">
-        <f>D67*G67</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5350,14 +5328,14 @@
         <v>940</v>
       </c>
       <c r="F68" s="1">
-        <f>D68*E68</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G68" s="3">
         <v>1103</v>
       </c>
       <c r="H68" s="1">
-        <f>D68*G68</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5376,14 +5354,14 @@
         <v>2880</v>
       </c>
       <c r="F69" s="1">
-        <f>D69*E69</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G69" s="3">
         <v>3360</v>
       </c>
       <c r="H69" s="1">
-        <f>D69*G69</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5402,14 +5380,14 @@
         <v>2410</v>
       </c>
       <c r="F70" s="1">
-        <f>D70*E70</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>2804</v>
       </c>
       <c r="H70" s="1">
-        <f>D70*G70</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5428,14 +5406,14 @@
         <v>2190</v>
       </c>
       <c r="F71" s="1">
-        <f>D71*E71</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G71" s="3">
         <v>2552</v>
       </c>
       <c r="H71" s="1">
-        <f>D71*G71</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5454,14 +5432,14 @@
         <v>2880</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" ref="F72:F86" si="6">D72*E72</f>
+        <f t="shared" ref="F72:F86" si="10">D72*E72</f>
         <v>0</v>
       </c>
       <c r="G72" s="3">
         <v>3360</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" ref="H72:H86" si="7">D72*G72</f>
+        <f t="shared" ref="H72:H86" si="11">D72*G72</f>
         <v>0</v>
       </c>
     </row>
@@ -5480,14 +5458,14 @@
         <v>1510</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G73" s="3">
         <v>1754</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5506,14 +5484,14 @@
         <v>2880</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G74" s="3">
         <v>3360</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5532,14 +5510,14 @@
         <v>1820</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G75" s="3">
         <v>2111</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5558,14 +5536,14 @@
         <v>2460</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>2856</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5584,14 +5562,14 @@
         <v>2750</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G77" s="3">
         <v>3192</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5610,14 +5588,14 @@
         <v>2480</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G78" s="3">
         <v>2888</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5636,14 +5614,14 @@
         <v>2670</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G79" s="3">
         <v>3119</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5662,14 +5640,14 @@
         <v>1640</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G80" s="3">
         <v>1911</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5688,14 +5666,14 @@
         <v>1550</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>1806</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5714,14 +5692,14 @@
         <v>1890</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G82" s="3">
         <v>2205</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5740,14 +5718,14 @@
         <v>2535</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>2930</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5766,14 +5744,14 @@
         <v>1550</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G84" s="3">
         <v>1806</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5792,14 +5770,14 @@
         <v>2110</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G85" s="3">
         <v>2457</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5818,14 +5796,14 @@
         <v>1550</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G86" s="3">
         <v>1806</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -5844,14 +5822,14 @@
         <v>2200</v>
       </c>
       <c r="F87" s="1">
-        <f>D87*E87</f>
+        <f t="shared" ref="F87:F111" si="12">D87*E87</f>
         <v>0</v>
       </c>
       <c r="G87" s="3">
         <v>2583</v>
       </c>
       <c r="H87" s="1">
-        <f>D87*G87</f>
+        <f t="shared" ref="H87:H111" si="13">D87*G87</f>
         <v>0</v>
       </c>
     </row>
@@ -5870,14 +5848,14 @@
         <v>1710</v>
       </c>
       <c r="F88" s="1">
-        <f>D88*E88</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G88" s="3">
         <v>1995</v>
       </c>
       <c r="H88" s="1">
-        <f>D88*G88</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5896,14 +5874,14 @@
         <v>1710</v>
       </c>
       <c r="F89" s="1">
-        <f>D89*E89</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>1995</v>
       </c>
       <c r="H89" s="1">
-        <f>D89*G89</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5922,14 +5900,14 @@
         <v>1710</v>
       </c>
       <c r="F90" s="1">
-        <f>D90*E90</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G90" s="3">
         <v>1995</v>
       </c>
       <c r="H90" s="1">
-        <f>D90*G90</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5948,14 +5926,14 @@
         <v>1450</v>
       </c>
       <c r="F91" s="1">
-        <f>D91*E91</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>1701</v>
       </c>
       <c r="H91" s="1">
-        <f>D91*G91</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5974,14 +5952,14 @@
         <v>1350</v>
       </c>
       <c r="F92" s="1">
-        <f>D92*E92</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G92" s="3">
         <v>1575</v>
       </c>
       <c r="H92" s="1">
-        <f>D92*G92</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6000,14 +5978,14 @@
         <v>940</v>
       </c>
       <c r="F93" s="1">
-        <f>D93*E93</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G93" s="3">
         <v>1103</v>
       </c>
       <c r="H93" s="1">
-        <f>D93*G93</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6026,14 +6004,14 @@
         <v>670</v>
       </c>
       <c r="F94" s="1">
-        <f>D94*E94</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>777</v>
       </c>
       <c r="H94" s="1">
-        <f>D94*G94</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6052,14 +6030,14 @@
         <v>1260</v>
       </c>
       <c r="F95" s="1">
-        <f>D95*E95</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G95" s="3">
         <v>1470</v>
       </c>
       <c r="H95" s="1">
-        <f>D95*G95</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6078,14 +6056,14 @@
         <v>1170</v>
       </c>
       <c r="F96" s="1">
-        <f>D96*E96</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>1344</v>
       </c>
       <c r="H96" s="1">
-        <f>D96*G96</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6104,14 +6082,14 @@
         <v>830</v>
       </c>
       <c r="F97" s="1">
-        <f>D97*E97</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G97" s="3">
         <v>966</v>
       </c>
       <c r="H97" s="1">
-        <f>D97*G97</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6130,14 +6108,14 @@
         <v>940</v>
       </c>
       <c r="F98" s="1">
-        <f>D98*E98</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G98" s="3">
         <v>1103</v>
       </c>
       <c r="H98" s="1">
-        <f>D98*G98</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6156,14 +6134,14 @@
         <v>670</v>
       </c>
       <c r="F99" s="1">
-        <f>D99*E99</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G99" s="3">
         <v>777</v>
       </c>
       <c r="H99" s="1">
-        <f>D99*G99</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6182,14 +6160,14 @@
         <v>670</v>
       </c>
       <c r="F100" s="1">
-        <f>D100*E100</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>777</v>
       </c>
       <c r="H100" s="1">
-        <f>D100*G100</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6208,14 +6186,14 @@
         <v>940</v>
       </c>
       <c r="F101" s="1">
-        <f>D101*E101</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>1103</v>
       </c>
       <c r="H101" s="1">
-        <f>D101*G101</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6234,14 +6212,14 @@
         <v>940</v>
       </c>
       <c r="F102" s="1">
-        <f>D102*E102</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>1103</v>
       </c>
       <c r="H102" s="1">
-        <f>D102*G102</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6260,14 +6238,14 @@
         <v>940</v>
       </c>
       <c r="F103" s="1">
-        <f>D103*E103</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G103" s="3">
         <v>1103</v>
       </c>
       <c r="H103" s="1">
-        <f>D103*G103</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6286,14 +6264,14 @@
         <v>1350</v>
       </c>
       <c r="F104" s="1">
-        <f>D104*E104</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G104" s="3">
         <v>1575</v>
       </c>
       <c r="H104" s="1">
-        <f>D104*G104</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6312,14 +6290,14 @@
         <v>846</v>
       </c>
       <c r="F105" s="1">
-        <f>D105*E105</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G105" s="3">
         <v>987</v>
       </c>
       <c r="H105" s="1">
-        <f>D105*G105</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6338,14 +6316,14 @@
         <v>846</v>
       </c>
       <c r="F106" s="1">
-        <f>D106*E106</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G106" s="3">
         <v>987</v>
       </c>
       <c r="H106" s="1">
-        <f>D106*G106</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6364,14 +6342,14 @@
         <v>430</v>
       </c>
       <c r="F107" s="1">
-        <f>D107*E107</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
         <v>504</v>
       </c>
       <c r="H107" s="1">
-        <f>D107*G107</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6390,14 +6368,14 @@
         <v>790</v>
       </c>
       <c r="F108" s="1">
-        <f>D108*E108</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
         <v>924</v>
       </c>
       <c r="H108" s="1">
-        <f>D108*G108</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6416,14 +6394,14 @@
         <v>340</v>
       </c>
       <c r="F109" s="1">
-        <f>D109*E109</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
         <v>399</v>
       </c>
       <c r="H109" s="1">
-        <f>D109*G109</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6442,14 +6420,14 @@
         <v>530</v>
       </c>
       <c r="F110" s="1">
-        <f>D110*E110</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G110" s="1">
         <v>614</v>
       </c>
       <c r="H110" s="1">
-        <f>D110*G110</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6468,14 +6446,14 @@
         <v>1320</v>
       </c>
       <c r="F111" s="1">
-        <f>D111*E111</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G111" s="3">
         <v>1544</v>
       </c>
       <c r="H111" s="1">
-        <f>D111*G111</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>

--- a/丞燕產品表新版.xlsx
+++ b/丞燕產品表新版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsaiwenzhe/PycharmProjects/python_01/chen-yen-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AB34B-0B50-A440-99A1-CD917610C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771AC200-A2F0-1641-816E-2A0714C3032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{538792E1-593F-4146-9932-8EFA0D39105A}"/>
+    <workbookView xWindow="18020" yWindow="800" windowWidth="18000" windowHeight="22600" xr2:uid="{538792E1-593F-4146-9932-8EFA0D39105A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -510,18 +510,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>千禧飲料(30包)</t>
-  </si>
-  <si>
-    <t>千禧金飲料(30包)</t>
-  </si>
-  <si>
-    <t>千禧泉(200毫升/瓶,5瓶裝)</t>
-  </si>
-  <si>
-    <t>千禧泉2號(200毫升/瓶,5瓶裝)</t>
-  </si>
-  <si>
     <t>膠囊食品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2539,6 +2527,22 @@
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧飲料(30包)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧金飲料(30包)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧泉(200毫升/瓶,5瓶裝)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧泉2號(200毫升/瓶,5瓶裝)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3565,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFDBBA-64EE-4543-B25F-632AA2660F62}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="163" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4207,7 +4211,7 @@
         <v>109230</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="3">
@@ -4233,7 +4237,7 @@
         <v>109240</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="3">
@@ -4259,7 +4263,7 @@
         <v>809010</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3">
@@ -4285,7 +4289,7 @@
         <v>809020</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="3">
@@ -4305,13 +4309,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>200000</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3">
@@ -4331,13 +4335,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
         <v>200010</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="3">
@@ -4357,13 +4361,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1">
         <v>200020</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="3">
@@ -4383,13 +4387,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>200030</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="3">
@@ -4409,13 +4413,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>200040</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="3">
@@ -4435,13 +4439,13 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
         <v>200060</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="3">
@@ -4461,13 +4465,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
         <v>200070</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3">
@@ -4487,13 +4491,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>200100</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="3">
@@ -4513,13 +4517,13 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>200110</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="3">
@@ -4539,13 +4543,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>200160</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="3">
@@ -4565,13 +4569,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>200170</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="3">
@@ -4591,13 +4595,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
         <v>200180</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3">
@@ -4617,13 +4621,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1">
         <v>200190</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3">
@@ -4643,13 +4647,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1">
         <v>209200</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="3">
@@ -4669,13 +4673,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B43" s="1">
         <v>209210</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="3">
@@ -4695,13 +4699,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1">
         <v>209220</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="3">
@@ -4721,13 +4725,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1">
         <v>917000</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="3">
@@ -4747,13 +4751,13 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1">
         <v>110000</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="3">
@@ -4773,13 +4777,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1">
         <v>110010</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3">
@@ -4799,13 +4803,13 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
         <v>110020</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="3">
@@ -4825,13 +4829,13 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1">
         <v>10005</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="3">
@@ -4851,13 +4855,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1">
         <v>809090</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3">
@@ -4877,13 +4881,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1">
         <v>850011</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="3">
@@ -4903,13 +4907,13 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1">
         <v>850021</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3">
@@ -4929,13 +4933,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1">
         <v>850031</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3">
@@ -4955,13 +4959,13 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1">
         <v>850041</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="3">
@@ -4981,13 +4985,13 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
         <v>850051</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="3">
@@ -5007,13 +5011,13 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B56" s="1">
         <v>850061</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="3">
@@ -5033,13 +5037,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1">
         <v>850071</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="3">
@@ -5059,13 +5063,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>850081</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="3">
@@ -5085,13 +5089,13 @@
     </row>
     <row r="59" spans="1:8" ht="16">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1">
         <v>500120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="3">
@@ -5111,13 +5115,13 @@
     </row>
     <row r="60" spans="1:8" ht="16">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1">
         <v>500122</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="3">
@@ -5137,13 +5141,13 @@
     </row>
     <row r="61" spans="1:8" ht="16">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" s="1">
         <v>500123</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="3">
@@ -5163,13 +5167,13 @@
     </row>
     <row r="62" spans="1:8" ht="16">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1">
         <v>500132</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="3">
@@ -5189,13 +5193,13 @@
     </row>
     <row r="63" spans="1:8" ht="16">
       <c r="A63" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" s="9">
         <v>500140</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="10">
@@ -5213,13 +5217,13 @@
     </row>
     <row r="64" spans="1:8" ht="16">
       <c r="A64" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B64" s="11">
         <v>500150</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="12">
@@ -5237,13 +5241,13 @@
     </row>
     <row r="65" spans="1:8" ht="16">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1">
         <v>600010</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="3">
@@ -5263,13 +5267,13 @@
     </row>
     <row r="66" spans="1:8" ht="16">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1">
         <v>10300</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1">
@@ -5289,13 +5293,13 @@
     </row>
     <row r="67" spans="1:8" ht="16">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1">
         <v>10305</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="3">
@@ -5315,13 +5319,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1">
         <v>10306</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1">
@@ -5341,13 +5345,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1">
         <v>10200</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="3">
@@ -5367,13 +5371,13 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1">
         <v>10211</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="3">
@@ -5393,13 +5397,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1">
         <v>11601</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="3">
@@ -5419,13 +5423,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B72" s="1">
         <v>10104</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="3">
@@ -5445,13 +5449,13 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1">
         <v>10113</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="3">
@@ -5471,13 +5475,13 @@
     </row>
     <row r="74" spans="1:8" ht="32">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1">
         <v>10204</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="3">
@@ -5497,13 +5501,13 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B75" s="1">
         <v>10800</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="3">
@@ -5523,13 +5527,13 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1">
         <v>10801</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="3">
@@ -5549,13 +5553,13 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1">
         <v>10803</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="3">
@@ -5575,13 +5579,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1">
         <v>11001</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="3">
@@ -5601,13 +5605,13 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1">
         <v>11400</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="3">
@@ -5627,13 +5631,13 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1">
         <v>11401</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="3">
@@ -5653,13 +5657,13 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B81" s="1">
         <v>11600</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="3">
@@ -5679,13 +5683,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1">
         <v>11602</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="3">
@@ -5705,13 +5709,13 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B83" s="1">
         <v>11603</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="3">
@@ -5731,13 +5735,13 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>18207</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="3">
@@ -5757,13 +5761,13 @@
     </row>
     <row r="85" spans="1:8" ht="16">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1">
         <v>18208</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="3">
@@ -5783,13 +5787,13 @@
     </row>
     <row r="86" spans="1:8" ht="16">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>18500</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="3">
@@ -5809,13 +5813,13 @@
     </row>
     <row r="87" spans="1:8" ht="16">
       <c r="A87" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B87" s="1">
         <v>10206</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="3">
@@ -5835,13 +5839,13 @@
     </row>
     <row r="88" spans="1:8" ht="16">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B88" s="1">
         <v>10207</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="3">
@@ -5861,13 +5865,13 @@
     </row>
     <row r="89" spans="1:8" ht="34">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1">
         <v>10105</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="3">
@@ -5887,13 +5891,13 @@
     </row>
     <row r="90" spans="1:8" ht="36">
       <c r="A90" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1">
         <v>10108</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="3">
@@ -5913,13 +5917,13 @@
     </row>
     <row r="91" spans="1:8" ht="36">
       <c r="A91" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B91" s="1">
         <v>10109</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="3">
@@ -5939,13 +5943,13 @@
     </row>
     <row r="92" spans="1:8" ht="36">
       <c r="A92" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1">
         <v>10403</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="3">
@@ -5965,13 +5969,13 @@
     </row>
     <row r="93" spans="1:8" ht="16">
       <c r="A93" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B93" s="1">
         <v>10601</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
@@ -5991,13 +5995,13 @@
     </row>
     <row r="94" spans="1:8" ht="34">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1">
         <v>11222</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
@@ -6017,13 +6021,13 @@
     </row>
     <row r="95" spans="1:8" ht="16">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B95" s="1">
         <v>10806</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="3">
@@ -6043,13 +6047,13 @@
     </row>
     <row r="96" spans="1:8" ht="16">
       <c r="A96" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B96" s="1">
         <v>19805</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="3">
@@ -6069,13 +6073,13 @@
     </row>
     <row r="97" spans="1:8" ht="16">
       <c r="A97" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1">
         <v>10500</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
@@ -6095,13 +6099,13 @@
     </row>
     <row r="98" spans="1:8" ht="16">
       <c r="A98" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B98" s="1">
         <v>10504</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
@@ -6121,13 +6125,13 @@
     </row>
     <row r="99" spans="1:8" ht="34">
       <c r="A99" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B99" s="1">
         <v>11220</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
@@ -6147,13 +6151,13 @@
     </row>
     <row r="100" spans="1:8" ht="34">
       <c r="A100" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1">
         <v>11221</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1">
@@ -6173,13 +6177,13 @@
     </row>
     <row r="101" spans="1:8" ht="16">
       <c r="A101" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1">
         <v>10501</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1">
@@ -6199,13 +6203,13 @@
     </row>
     <row r="102" spans="1:8" ht="16">
       <c r="A102" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B102" s="1">
         <v>10550</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1">
@@ -6225,13 +6229,13 @@
     </row>
     <row r="103" spans="1:8" ht="16">
       <c r="A103" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B103" s="1">
         <v>10552</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1">
@@ -6251,13 +6255,13 @@
     </row>
     <row r="104" spans="1:8" ht="16">
       <c r="A104" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B104" s="1">
         <v>20017</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="3">
@@ -6277,13 +6281,13 @@
     </row>
     <row r="105" spans="1:8" ht="16">
       <c r="A105" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B105" s="1">
         <v>20018</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1">
@@ -6303,13 +6307,13 @@
     </row>
     <row r="106" spans="1:8" ht="16">
       <c r="A106" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B106" s="1">
         <v>20019</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1">
@@ -6329,13 +6333,13 @@
     </row>
     <row r="107" spans="1:8" ht="16">
       <c r="A107" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1">
         <v>10604</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1">
@@ -6355,13 +6359,13 @@
     </row>
     <row r="108" spans="1:8" ht="16">
       <c r="A108" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B108" s="1">
         <v>10603</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1">
@@ -6381,13 +6385,13 @@
     </row>
     <row r="109" spans="1:8" ht="16">
       <c r="A109" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B109" s="1">
         <v>19114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1">
@@ -6407,13 +6411,13 @@
     </row>
     <row r="110" spans="1:8" ht="16">
       <c r="A110" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B110" s="1">
         <v>30000</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
@@ -6433,13 +6437,13 @@
     </row>
     <row r="111" spans="1:8" ht="16">
       <c r="A111" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B111" s="1">
         <v>37005</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="3">

--- a/丞燕產品表新版.xlsx
+++ b/丞燕產品表新版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsaiwenzhe/PycharmProjects/python_01/chen-yen-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsaiwenzhe/PycharmProjects/python_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771AC200-A2F0-1641-816E-2A0714C3032C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B90360-B6B1-3546-A7B8-9EE47334886A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="800" windowWidth="18000" windowHeight="22600" xr2:uid="{538792E1-593F-4146-9932-8EFA0D39105A}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{EF8DA9D8-C802-A64D-8331-8DEE6D140E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="數量">[1]工作表2!$A$2:$A$101</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,26 +56,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>數量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>積分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>總分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>價格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>總價</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>茶類</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -510,6 +490,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>千禧飲料(30包)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧金飲料(30包)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧泉(200毫升/瓶,5瓶裝)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>千禧泉2號(200毫升/瓶,5瓶裝)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>膠囊食品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -790,7 +786,186 @@
     </r>
   </si>
   <si>
+    <t>禧悅計劃</t>
+  </si>
+  <si>
+    <r>
+      <t>禧悅計劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>千禧飲料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紐益特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>禧悅金計劃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>千禧金飲料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紐益特</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>食用油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>食用調合油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>(375</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>毫升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>瓶裝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2351,198 +2526,23 @@
     </r>
   </si>
   <si>
-    <t>禧悅計劃</t>
-  </si>
-  <si>
-    <r>
-      <t>禧悅計劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>千禧飲料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>紐益特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
+    <t>數量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>禧悅金計劃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>千禧金飲料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>紐益特</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
+    <t>積分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>食用調合油</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>(375</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>毫升</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>瓶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>瓶裝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
+    <t>總分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>千禧飲料(30包)</t>
+    <t>價格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>千禧金飲料(30包)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千禧泉(200毫升/瓶,5瓶裝)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千禧泉2號(200毫升/瓶,5瓶裝)</t>
+    <t>總價</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2603,14 +2603,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2621,7 +2621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2644,37 +2644,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2682,9 +2658,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2702,16 +2675,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3566,17 +3533,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDFDBBA-64EE-4543-B25F-632AA2660F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644251C1-595B-154C-AC78-6D7210E61058}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="163" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3590,40 +3556,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>109182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3">
+      <c r="E2" s="8">
         <v>1250</v>
       </c>
       <c r="F2" s="1">
         <f>D2*E2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>1460</v>
       </c>
       <c r="H2" s="1">
@@ -3633,39 +3599,39 @@
     </row>
     <row r="3" spans="1:8" ht="16">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>10004</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3">
+      <c r="E3" s="8">
         <v>1290</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
+        <f t="shared" ref="F3:F45" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
         <v>1502</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H18" si="1">D3*G3</f>
+        <f t="shared" ref="H3:H45" si="1">D3*G3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>100080</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -3675,7 +3641,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
         <v>1082</v>
       </c>
       <c r="H4" s="1">
@@ -3685,13 +3651,13 @@
     </row>
     <row r="5" spans="1:8" ht="16">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>100083</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -3701,7 +3667,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <v>1082</v>
       </c>
       <c r="H5" s="1">
@@ -3711,13 +3677,13 @@
     </row>
     <row r="6" spans="1:8" ht="16">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>100085</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -3727,7 +3693,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <v>1082</v>
       </c>
       <c r="H6" s="1">
@@ -3737,23 +3703,23 @@
     </row>
     <row r="7" spans="1:8" ht="16">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>100111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3">
+      <c r="E7" s="8">
         <v>1110</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <v>1292</v>
       </c>
       <c r="H7" s="1">
@@ -3763,23 +3729,23 @@
     </row>
     <row r="8" spans="1:8" ht="16">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>100140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3">
+      <c r="E8" s="8">
         <v>1550</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <v>1806</v>
       </c>
       <c r="H8" s="1">
@@ -3789,23 +3755,23 @@
     </row>
     <row r="9" spans="1:8" ht="16">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>100121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <v>1670</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <v>1943</v>
       </c>
       <c r="H9" s="1">
@@ -3815,23 +3781,23 @@
     </row>
     <row r="10" spans="1:8" ht="16">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
         <v>100150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="3">
+      <c r="E10" s="8">
         <v>7160</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
         <v>8348</v>
       </c>
       <c r="H10" s="1">
@@ -3841,23 +3807,23 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>100210</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3">
+      <c r="E11" s="8">
         <v>1880</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <v>2184</v>
       </c>
       <c r="H11" s="1">
@@ -3867,23 +3833,23 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>100281</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3">
+      <c r="E12" s="8">
         <v>2070</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="8">
         <v>2415</v>
       </c>
       <c r="H12" s="1">
@@ -3893,23 +3859,23 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>109061</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <v>1200</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8">
         <v>1397</v>
       </c>
       <c r="H13" s="1">
@@ -3919,23 +3885,23 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>109250</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="3">
+      <c r="E14" s="8">
         <v>1030</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="8">
         <v>1197</v>
       </c>
       <c r="H14" s="1">
@@ -3945,23 +3911,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>109260</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>23</v>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <v>1670</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="8">
         <v>1943</v>
       </c>
       <c r="H15" s="1">
@@ -3971,23 +3937,23 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
         <v>109270</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="3">
+      <c r="E16" s="8">
         <v>2780</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="8">
         <v>3234</v>
       </c>
       <c r="H16" s="1">
@@ -3997,23 +3963,23 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>109271</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="3">
+      <c r="E17" s="8">
         <v>2780</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="8">
         <v>3234</v>
       </c>
       <c r="H17" s="1">
@@ -4023,23 +3989,23 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
         <v>150010</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>26</v>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="3">
+      <c r="E18" s="8">
         <v>2530</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="8">
         <v>2940</v>
       </c>
       <c r="H18" s="1">
@@ -4048,726 +4014,726 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
+      <c r="A19" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>10001</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="3">
+      <c r="E19" s="8">
         <v>4160</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ref="F19:F28" si="2">D19*E19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
         <v>4851</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ref="H19:H28" si="3">D19*G19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
-        <v>27</v>
+      <c r="A20" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>10006</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="3">
+      <c r="E20" s="8">
         <v>4160</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>4851</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
-        <v>27</v>
+      <c r="A21" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>10051</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>30</v>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="3">
+      <c r="E21" s="8">
         <v>4160</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
         <v>4851</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>31</v>
+      <c r="A22" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>100100</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>32</v>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="3">
+      <c r="E22" s="8">
         <v>5020</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
         <v>5849</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6" t="s">
-        <v>31</v>
+      <c r="A23" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>100101</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="3">
+      <c r="E23" s="8">
         <v>5020</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
         <v>5849</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
-        <v>31</v>
+      <c r="A24" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>200120</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>34</v>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="3">
+      <c r="E24" s="8">
         <v>5020</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
         <v>5849</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1">
         <v>109230</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>138</v>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="3">
+      <c r="E25" s="8">
         <v>4560</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
         <v>5313</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>109240</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>139</v>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="3">
+      <c r="E26" s="8">
         <v>5800</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
         <v>6752</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>809010</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>140</v>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="3">
+      <c r="E27" s="8">
         <v>5040</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
         <v>5880</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>809020</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>141</v>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="3">
+      <c r="E28" s="8">
         <v>5040</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>5880</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1">
         <v>200000</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="3">
+      <c r="E29" s="8">
         <v>1200</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ref="F29:F45" si="4">D29*E29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
         <v>1397</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:H45" si="5">D29*G29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1">
         <v>200010</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>38</v>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="3">
+      <c r="E30" s="8">
         <v>950</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
         <v>1124</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>200020</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>39</v>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="3">
+      <c r="E31" s="8">
         <v>1420</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="8">
         <v>1680</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>200030</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>40</v>
+      <c r="C32" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="3">
+      <c r="E32" s="8">
         <v>770</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
         <v>914</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
         <v>200040</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>41</v>
+      <c r="C33" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="3">
+      <c r="E33" s="8">
         <v>710</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="8">
         <v>840</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>200060</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>42</v>
+      <c r="C34" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="3">
+      <c r="E34" s="8">
         <v>1420</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
         <v>1680</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>200070</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>43</v>
+      <c r="C35" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="3">
+      <c r="E35" s="8">
         <v>710</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
         <v>840</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>200100</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>44</v>
+      <c r="C36" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="3">
+      <c r="E36" s="8">
         <v>1200</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
         <v>1397</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>200110</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>45</v>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="3">
+      <c r="E37" s="8">
         <v>1420</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="8">
         <v>1680</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>200160</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>46</v>
+      <c r="C38" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="3">
+      <c r="E38" s="8">
         <v>1350</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
         <v>1565</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
         <v>200170</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>47</v>
+      <c r="C39" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="3">
+      <c r="E39" s="8">
         <v>1590</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
         <v>1848</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1">
         <v>200180</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>48</v>
+      <c r="C40" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="3">
+      <c r="E40" s="8">
         <v>1350</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
         <v>1565</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1">
         <v>200190</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>49</v>
+      <c r="C41" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="3">
+      <c r="E41" s="8">
         <v>1670</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
         <v>1943</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="1">
         <v>209200</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>50</v>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="3">
+      <c r="E42" s="8">
         <v>1520</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
         <v>1775</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1">
         <v>209210</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>51</v>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="3">
+      <c r="E43" s="8">
         <v>1400</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
         <v>1628</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1">
         <v>209220</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>52</v>
+      <c r="C44" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="3">
+      <c r="E44" s="8">
         <v>1400</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="8">
         <v>1628</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1">
         <v>917000</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>53</v>
+      <c r="C45" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="3">
+      <c r="E45" s="8">
         <v>4600</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
         <v>5355</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1">
         <v>110000</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>55</v>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="3">
+      <c r="E46" s="8">
         <v>2560</v>
       </c>
       <c r="F46" s="1">
         <f>D46*E46</f>
         <v>0</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="8">
         <v>2982</v>
       </c>
       <c r="H46" s="1">
@@ -4777,23 +4743,23 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1">
         <v>110010</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>56</v>
+      <c r="C47" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="3">
+      <c r="E47" s="8">
         <v>1850</v>
       </c>
       <c r="F47" s="1">
         <f>D47*E47</f>
         <v>0</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="8">
         <v>2163</v>
       </c>
       <c r="H47" s="1">
@@ -4803,23 +4769,23 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1">
         <v>110020</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>57</v>
+      <c r="C48" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="3">
+      <c r="E48" s="8">
         <v>3380</v>
       </c>
       <c r="F48" s="1">
         <f>D48*E48</f>
         <v>0</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="8">
         <v>3927</v>
       </c>
       <c r="H48" s="1">
@@ -4829,283 +4795,283 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1">
         <v>10005</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>59</v>
+      <c r="C49" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="3">
+      <c r="E49" s="8">
         <v>2780</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ref="F49:F58" si="6">D49*E49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
+        <f t="shared" ref="F49:F58" si="2">D49*E49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
         <v>3245</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" ref="H49:H58" si="7">D49*G49</f>
+        <f t="shared" ref="H49:H58" si="3">D49*G49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1">
         <v>809090</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>60</v>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="3">
+      <c r="E50" s="8">
         <v>4400</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
         <v>5124</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1">
         <v>850011</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>61</v>
+      <c r="C51" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="3">
+      <c r="E51" s="8">
         <v>1800</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="8">
         <v>2080</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1">
         <v>850021</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>62</v>
+      <c r="C52" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="3">
+      <c r="E52" s="8">
         <v>1800</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="8">
         <v>2080</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1">
         <v>850031</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>63</v>
+      <c r="C53" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="3">
+      <c r="E53" s="8">
         <v>1800</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
         <v>2080</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>850041</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>64</v>
+      <c r="C54" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="3">
+      <c r="E54" s="8">
         <v>1800</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
         <v>2080</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1">
         <v>850051</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>65</v>
+      <c r="C55" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="3">
+      <c r="E55" s="8">
         <v>1800</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="8">
         <v>2080</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1">
         <v>850061</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>66</v>
+      <c r="C56" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="3">
+      <c r="E56" s="8">
         <v>1800</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="8">
         <v>2080</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>850071</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>67</v>
+      <c r="C57" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="3">
+      <c r="E57" s="8">
         <v>1800</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="8">
         <v>2080</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>850081</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>68</v>
+      <c r="C58" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="3">
+      <c r="E58" s="8">
         <v>1800</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="8">
         <v>2080</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16">
       <c r="A59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1">
         <v>500120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="3">
+      <c r="E59" s="8">
         <v>7580</v>
       </c>
       <c r="F59" s="1">
         <f>D59*E59</f>
         <v>0</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="8">
         <v>8841</v>
       </c>
       <c r="H59" s="1">
@@ -5115,23 +5081,23 @@
     </row>
     <row r="60" spans="1:8" ht="16">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1">
         <v>500122</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="3">
+      <c r="E60" s="8">
         <v>7900</v>
       </c>
       <c r="F60" s="1">
         <f>D60*E60</f>
         <v>0</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="8">
         <v>9219</v>
       </c>
       <c r="H60" s="1">
@@ -5141,23 +5107,23 @@
     </row>
     <row r="61" spans="1:8" ht="16">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1">
         <v>500123</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="3">
+      <c r="E61" s="8">
         <v>7280</v>
       </c>
       <c r="F61" s="1">
         <f>D61*E61</f>
         <v>0</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="8">
         <v>8495</v>
       </c>
       <c r="H61" s="1">
@@ -5167,23 +5133,23 @@
     </row>
     <row r="62" spans="1:8" ht="16">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62" s="1">
         <v>500132</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="3">
+      <c r="E62" s="8">
         <v>16350</v>
       </c>
       <c r="F62" s="1">
         <f>D62*E62</f>
         <v>0</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="8">
         <v>19068</v>
       </c>
       <c r="H62" s="1">
@@ -5192,1279 +5158,1279 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16">
-      <c r="A63" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" s="9">
+      <c r="A63" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="5">
         <v>500140</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10">
+      <c r="C63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="9">
         <v>13740</v>
       </c>
-      <c r="F63" s="9">
-        <v>0</v>
-      </c>
-      <c r="G63" s="10">
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="9">
         <v>16034</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16">
-      <c r="A64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="11">
+      <c r="A64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="5">
         <v>500150</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12">
+      <c r="C64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="9">
         <v>14980</v>
       </c>
-      <c r="F64" s="11">
-        <v>0</v>
-      </c>
-      <c r="G64" s="12">
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="9">
         <v>17472</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1">
         <v>600010</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="3">
+      <c r="E65" s="8">
         <v>1216</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" ref="F65:F71" si="8">D65*E65</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
+        <f t="shared" ref="F65:F111" si="4">D65*E65</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="8">
         <v>1596</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" ref="H65:H71" si="9">D65*G65</f>
+        <f t="shared" ref="H65:H111" si="5">D65*G65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1">
         <v>10300</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1">
         <v>940</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
         <v>1103</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B67" s="1">
         <v>10305</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="3">
+      <c r="E67" s="8">
         <v>1230</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
         <v>1433</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68" s="1">
         <v>10306</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>79</v>
+      <c r="C68" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1">
         <v>940</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="8">
         <v>1103</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1">
         <v>10200</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>81</v>
+      <c r="C69" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="3">
+      <c r="E69" s="8">
         <v>2880</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="8">
         <v>3360</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B70" s="1">
         <v>10211</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>82</v>
+      <c r="C70" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="3">
+      <c r="E70" s="8">
         <v>2410</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="8">
         <v>2804</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B71" s="1">
         <v>11601</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>83</v>
+      <c r="C71" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="3">
+      <c r="E71" s="8">
         <v>2190</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="8">
         <v>2552</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1">
         <v>10104</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>85</v>
+      <c r="C72" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="3">
+      <c r="E72" s="8">
         <v>2880</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" ref="F72:F86" si="10">D72*E72</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="8">
         <v>3360</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" ref="H72:H86" si="11">D72*G72</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B73" s="1">
         <v>10113</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>86</v>
+      <c r="C73" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="3">
+      <c r="E73" s="8">
         <v>1510</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
         <v>1754</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="32">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B74" s="1">
         <v>10204</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>87</v>
+      <c r="C74" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="3">
+      <c r="E74" s="8">
         <v>2880</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="8">
         <v>3360</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B75" s="1">
         <v>10800</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>88</v>
+      <c r="C75" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="3">
+      <c r="E75" s="8">
         <v>1820</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="8">
         <v>2111</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B76" s="1">
         <v>10801</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>89</v>
+      <c r="C76" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="3">
+      <c r="E76" s="8">
         <v>2460</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="8">
         <v>2856</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="1">
         <v>10803</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>90</v>
+      <c r="C77" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="3">
+      <c r="E77" s="8">
         <v>2750</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
         <v>3192</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B78" s="1">
         <v>11001</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>91</v>
+      <c r="C78" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="3">
+      <c r="E78" s="8">
         <v>2480</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="8">
         <v>2888</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B79" s="1">
         <v>11400</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>92</v>
+      <c r="C79" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="3">
+      <c r="E79" s="8">
         <v>2670</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
         <v>3119</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80" s="1">
         <v>11401</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>93</v>
+      <c r="C80" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="3">
+      <c r="E80" s="8">
         <v>1640</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="8">
         <v>1911</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81" s="1">
         <v>11600</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>94</v>
+      <c r="C81" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="3">
+      <c r="E81" s="8">
         <v>1550</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
         <v>1806</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1">
         <v>11602</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>95</v>
+      <c r="C82" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="3">
+      <c r="E82" s="8">
         <v>1890</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="8">
         <v>2205</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83" s="1">
         <v>11603</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>96</v>
+      <c r="C83" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="E83" s="3">
+      <c r="E83" s="8">
         <v>2535</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="8">
         <v>2930</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1">
         <v>18207</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>97</v>
+      <c r="C84" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="3">
+      <c r="E84" s="8">
         <v>1550</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
         <v>1806</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1">
         <v>18208</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="E85" s="3">
+      <c r="E85" s="8">
         <v>2110</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
         <v>2457</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B86" s="1">
         <v>18500</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="3">
+      <c r="E86" s="8">
         <v>1550</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
         <v>1806</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B87" s="1">
         <v>10206</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D87" s="1"/>
-      <c r="E87" s="3">
+      <c r="E87" s="8">
         <v>2200</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87:F111" si="12">D87*E87</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="8">
         <v>2583</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87:H111" si="13">D87*G87</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B88" s="1">
         <v>10207</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="3">
+      <c r="E88" s="8">
         <v>1710</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="8">
         <v>1995</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="34">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B89" s="1">
         <v>10105</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>104</v>
+      <c r="C89" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="3">
+      <c r="E89" s="8">
         <v>1710</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="8">
         <v>1995</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="36">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B90" s="1">
         <v>10108</v>
       </c>
-      <c r="C90" s="8" t="s">
-        <v>105</v>
+      <c r="C90" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="3">
+      <c r="E90" s="8">
         <v>1710</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="8">
         <v>1995</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="36">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B91" s="1">
         <v>10109</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>106</v>
+      <c r="C91" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="D91" s="1"/>
-      <c r="E91" s="3">
+      <c r="E91" s="8">
         <v>1450</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
         <v>1701</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="36">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1">
         <v>10403</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>107</v>
+      <c r="C92" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="3">
+      <c r="E92" s="8">
         <v>1350</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
         <v>1575</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16">
       <c r="A93" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B93" s="1">
         <v>10601</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
         <v>940</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="8">
         <v>1103</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="34">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B94" s="1">
         <v>11222</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>110</v>
+      <c r="C94" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
         <v>670</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="8">
         <v>777</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16">
       <c r="A95" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1">
         <v>10806</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D95" s="1"/>
-      <c r="E95" s="3">
+      <c r="E95" s="8">
         <v>1260</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
         <v>1470</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16">
       <c r="A96" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B96" s="1">
         <v>19805</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D96" s="1"/>
-      <c r="E96" s="3">
+      <c r="E96" s="8">
         <v>1170</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="8">
         <v>1344</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B97" s="1">
         <v>10500</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
         <v>830</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="8">
         <v>966</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16">
       <c r="A98" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B98" s="1">
         <v>10504</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
         <v>940</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
         <v>1103</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="34">
       <c r="A99" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1">
         <v>11220</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>117</v>
+      <c r="C99" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
         <v>670</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
         <v>777</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="34">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B100" s="1">
         <v>11221</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>118</v>
+      <c r="C100" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1">
         <v>670</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
         <v>777</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B101" s="1">
         <v>10501</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1">
         <v>940</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
         <v>1103</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16">
       <c r="A102" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B102" s="1">
         <v>10550</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1">
         <v>940</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
         <v>1103</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B103" s="1">
         <v>10552</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1">
         <v>940</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="8">
         <v>1103</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B104" s="1">
         <v>20017</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="3">
+      <c r="E104" s="8">
         <v>1350</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
         <v>1575</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16">
       <c r="A105" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B105" s="1">
         <v>20018</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1">
         <v>846</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
         <v>987</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16">
       <c r="A106" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B106" s="1">
         <v>20019</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1">
         <v>846</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
         <v>987</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16">
       <c r="A107" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B107" s="1">
         <v>10604</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1">
         <v>430</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G107" s="1">
         <v>504</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16">
       <c r="A108" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B108" s="1">
         <v>10603</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1">
         <v>790</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108" s="1">
         <v>924</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16">
       <c r="A109" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B109" s="1">
         <v>19114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1">
         <v>340</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109" s="1">
         <v>399</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16">
       <c r="A110" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B110" s="1">
         <v>30000</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1">
         <v>530</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G110" s="1">
         <v>614</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16">
       <c r="A111" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B111" s="1">
         <v>37005</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" s="3">
+      <c r="E111" s="8">
         <v>1320</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
         <v>1544</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21 C22:D24 B25:B28 D25:D62 D65:D111" xr:uid="{1692402F-28F3-C04E-8783-8D60E144604A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C24 B25:B28" xr:uid="{64DD4CF4-7142-5647-A71F-2E398D5FDE38}">
       <formula1>數量</formula1>
     </dataValidation>
   </dataValidations>
